--- a/jpcore-r4/feature/searchparameter-fix/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/searchparameter-fix/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T10:17:04+00:00</t>
+    <t>2024-07-03T10:25:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
